--- a/data/trans_bre/P1802-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1802-Edad-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">

--- a/data/trans_bre/P1802-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1802-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,10 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,32 +540,56 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -567,6 +602,10 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -591,12 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>4,35</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3,53</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>42,39%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>47,06%</t>
         </is>
       </c>
     </row>
@@ -619,12 +678,32 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 9,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; 9,24</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 111,95</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-32,35; 203,33</t>
         </is>
       </c>
     </row>
@@ -651,12 +730,32 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33,34%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9,16%</t>
         </is>
       </c>
     </row>
@@ -679,12 +778,32 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 7,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,05; 4,92</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-2,06; 83,99</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-32,3; 69,39</t>
         </is>
       </c>
     </row>
@@ -711,12 +830,32 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>-2,9</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13,84%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-16,49%</t>
         </is>
       </c>
     </row>
@@ -739,12 +878,32 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 5,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,86; 1,49</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-12,7; 48,1</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-34,01; 10,36</t>
         </is>
       </c>
     </row>
@@ -771,12 +930,32 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>-0,48</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>-1,83</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-2,85%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-8,18%</t>
         </is>
       </c>
     </row>
@@ -799,12 +978,32 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 3,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,56; 5,39</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-25,02; 25,42</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-48,72; 34,36</t>
         </is>
       </c>
     </row>
@@ -831,12 +1030,32 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>10,25</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5,05</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>65,27%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>24,76%</t>
         </is>
       </c>
     </row>
@@ -859,12 +1078,32 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,61; 15,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 9,02</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>24,9; 119,52</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2,62; 49,05</t>
         </is>
       </c>
     </row>
@@ -891,12 +1130,32 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>6,85</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>39,29%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6,18%</t>
         </is>
       </c>
     </row>
@@ -919,12 +1178,32 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,6; 10,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,1; 4,54</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>13,21; 72,88</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-27,25; 28,53</t>
         </is>
       </c>
     </row>
@@ -951,12 +1230,32 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>4,52</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>31,44%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
         </is>
       </c>
     </row>
@@ -979,12 +1278,32 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,75; 6,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,79; 2,96</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>17,93; 47,21</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-18,44; 19,1</t>
         </is>
       </c>
     </row>
@@ -998,12 +1317,12 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P1802-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1802-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,53</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>47,06%</t>
+          <t>46,09%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 9,24</t>
+          <t>-3,61; 9,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-32,35; 203,33</t>
+          <t>-35,63; 201,21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>-0,83%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 4,92</t>
+          <t>-5,98; 4,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,3; 69,39</t>
+          <t>-45,29; 56,42</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-16,49%</t>
+          <t>-15,87%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 1,49</t>
+          <t>-6,88; 1,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 10,36</t>
+          <t>-32,94; 11,49</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-19,4</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-8,18%</t>
+          <t>-48,8%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,56; 5,39</t>
+          <t>-49,79; 4,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,72; 34,36</t>
+          <t>-72,63; 28,53</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>23,23%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 9,02</t>
+          <t>0,51; 8,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,62; 49,05</t>
+          <t>2,03; 46,31</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1130,12 +1130,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>-4,78</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1150,12 +1150,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>39,29%</t>
+          <t>48,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>-25,29%</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,6; 10,94</t>
+          <t>1,78; 14,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 4,54</t>
+          <t>-16,59; 3,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,19 +1198,19 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,21; 72,88</t>
+          <t>8,71; 104,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,25; 28,53</t>
+          <t>-74,19; 20,17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1230,12 +1230,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>29,49%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>27,64%</t>
         </is>
       </c>
     </row>
@@ -1278,44 +1278,144 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>-1,15; 12,08</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 8,39</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; 78,12</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 63,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4,52</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-4,69</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>31,44%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-21,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>2,75; 6,45</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-3,79; 2,96</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-23,75; 2,01</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>17,93; 47,21</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-18,44; 19,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-58,66; 12,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P1802-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1802-Edad-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 9,25</t>
+          <t>-0,11; 8,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 9,36</t>
+          <t>-4,05; 9,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 111,95</t>
+          <t>-2,97; 103,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-35,63; 201,21</t>
+          <t>-37,24; 214,54</t>
         </is>
       </c>
     </row>
@@ -778,12 +778,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 7,98</t>
+          <t>-0,32; 7,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 4,56</t>
+          <t>-6,08; 4,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 83,99</t>
+          <t>-3,63; 85,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,29; 56,42</t>
+          <t>-47,69; 57,74</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,68</t>
+          <t>-1,93; 5,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 1,67</t>
+          <t>-7,21; 1,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 48,1</t>
+          <t>-13,05; 49,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,94; 11,49</t>
+          <t>-34,68; 7,14</t>
         </is>
       </c>
     </row>
@@ -978,12 +978,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 3,72</t>
+          <t>-4,69; 3,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,79; 4,58</t>
+          <t>-57,14; 4,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 25,42</t>
+          <t>-25,27; 25,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,63; 28,53</t>
+          <t>-74,33; 26,59</t>
         </is>
       </c>
     </row>
@@ -1078,12 +1078,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,61; 15,49</t>
+          <t>4,98; 15,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 8,8</t>
+          <t>0,47; 9,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,9; 119,52</t>
+          <t>26,36; 115,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 46,31</t>
+          <t>1,88; 50,07</t>
         </is>
       </c>
     </row>
@@ -1178,12 +1178,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,78; 14,18</t>
+          <t>1,78; 13,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 3,67</t>
+          <t>-15,0; 3,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,71; 104,22</t>
+          <t>9,09; 98,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-74,19; 20,17</t>
+          <t>-70,96; 21,86</t>
         </is>
       </c>
     </row>
@@ -1278,12 +1278,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 12,08</t>
+          <t>-0,41; 12,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 8,39</t>
+          <t>-0,31; 8,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 78,12</t>
+          <t>-1,84; 81,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,2; 63,84</t>
+          <t>-1,87; 67,61</t>
         </is>
       </c>
     </row>
@@ -1378,12 +1378,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,45</t>
+          <t>2,76; 6,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 2,01</t>
+          <t>-23,46; 2,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,93; 47,21</t>
+          <t>17,72; 46,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-58,66; 12,54</t>
+          <t>-58,67; 13,56</t>
         </is>
       </c>
     </row>
